--- a/results/mp/tinybert/corona/confidence/210/stop-words-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,142 +40,127 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>great</t>
+    <t>special</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
     <t>safe</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>good</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>hand</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>energy</t>
+    <t>sure</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>share</t>
+    <t>co</t>
   </si>
 </sst>
 </file>
@@ -541,10 +526,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -602,13 +587,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -620,19 +605,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -644,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -652,13 +637,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.88</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -670,19 +655,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K4">
-        <v>0.96875</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -702,13 +687,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7532467532467533</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C5">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -720,19 +705,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K5">
-        <v>0.9583333333333334</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -744,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -752,13 +737,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7058823529411765</v>
+        <v>0.5958904109589042</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>174</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>174</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -770,19 +755,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>118</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="K6">
-        <v>0.9375</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L6">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="M6">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -794,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -802,13 +787,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6666666666666666</v>
+        <v>0.1841085271317829</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -820,19 +805,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>421</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K7">
         <v>0.9090909090909091</v>
       </c>
       <c r="L7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -844,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -852,13 +837,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4583333333333333</v>
+        <v>0.1693121693121693</v>
       </c>
       <c r="C8">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D8">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -870,295 +855,175 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>13</v>
+        <v>157</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8">
+        <v>0.875</v>
+      </c>
+      <c r="L8">
+        <v>98</v>
+      </c>
+      <c r="M8">
+        <v>98</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="J9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="L9">
+        <v>23</v>
+      </c>
+      <c r="M9">
+        <v>23</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10">
+        <v>0.8292682926829268</v>
+      </c>
+      <c r="L10">
+        <v>68</v>
+      </c>
+      <c r="M10">
+        <v>68</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11">
+        <v>0.8055555555555556</v>
+      </c>
+      <c r="L11">
+        <v>29</v>
+      </c>
+      <c r="M11">
+        <v>29</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12">
+        <v>0.7931034482758621</v>
+      </c>
+      <c r="L12">
+        <v>46</v>
+      </c>
+      <c r="M12">
+        <v>46</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="J13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K8">
-        <v>0.9</v>
-      </c>
-      <c r="L8">
-        <v>36</v>
-      </c>
-      <c r="M8">
-        <v>36</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.3928571428571428</v>
-      </c>
-      <c r="C9">
-        <v>11</v>
-      </c>
-      <c r="D9">
-        <v>11</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>17</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9">
-        <v>0.8627450980392157</v>
-      </c>
-      <c r="L9">
-        <v>44</v>
-      </c>
-      <c r="M9">
-        <v>44</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.296137339055794</v>
-      </c>
-      <c r="C10">
-        <v>69</v>
-      </c>
-      <c r="D10">
-        <v>69</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>164</v>
-      </c>
-      <c r="J10" s="1" t="s">
+      <c r="K13">
+        <v>0.7890625</v>
+      </c>
+      <c r="L13">
+        <v>101</v>
+      </c>
+      <c r="M13">
+        <v>101</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>27</v>
-      </c>
-      <c r="K10">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="L10">
-        <v>48</v>
-      </c>
-      <c r="M10">
-        <v>48</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.2093023255813954</v>
-      </c>
-      <c r="C11">
-        <v>18</v>
-      </c>
-      <c r="D11">
-        <v>18</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>68</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11">
-        <v>0.8518518518518519</v>
-      </c>
-      <c r="L11">
-        <v>23</v>
-      </c>
-      <c r="M11">
-        <v>23</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.175</v>
-      </c>
-      <c r="C12">
-        <v>14</v>
-      </c>
-      <c r="D12">
-        <v>14</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>66</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L12">
-        <v>10</v>
-      </c>
-      <c r="M12">
-        <v>10</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="C13">
-        <v>10</v>
-      </c>
-      <c r="D13">
-        <v>10</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>100</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K13">
-        <v>0.8148148148148148</v>
-      </c>
-      <c r="L13">
-        <v>44</v>
-      </c>
-      <c r="M13">
-        <v>44</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K14">
-        <v>0.7647058823529411</v>
+        <v>0.775</v>
       </c>
       <c r="L14">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="M14">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1170,21 +1035,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K15">
-        <v>0.7647058823529411</v>
+        <v>0.7547169811320755</v>
       </c>
       <c r="L15">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M15">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1196,21 +1061,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K16">
-        <v>0.7586206896551724</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="L16">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="M16">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1222,21 +1087,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K17">
-        <v>0.7586206896551724</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L17">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="M17">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1248,21 +1113,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K18">
-        <v>0.7435897435897436</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L18">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="M18">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1274,21 +1139,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K19">
-        <v>0.7123287671232876</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L19">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="M19">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1300,21 +1165,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K20">
-        <v>0.6923076923076923</v>
+        <v>0.68125</v>
       </c>
       <c r="L20">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="M20">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1326,21 +1191,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K21">
-        <v>0.68</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L21">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M21">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1352,21 +1217,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K22">
+        <v>0.6190476190476191</v>
+      </c>
+      <c r="L22">
         <v>39</v>
       </c>
-      <c r="K22">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="L22">
-        <v>21</v>
-      </c>
       <c r="M22">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1378,21 +1243,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K23">
-        <v>0.6</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L23">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="M23">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1404,21 +1269,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K24">
-        <v>0.6</v>
+        <v>0.58</v>
       </c>
       <c r="L24">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="M24">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1430,21 +1295,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K25">
-        <v>0.5833333333333334</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="L25">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M25">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1456,21 +1321,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K26">
-        <v>0.5789473684210527</v>
+        <v>0.5430809399477807</v>
       </c>
       <c r="L26">
-        <v>11</v>
+        <v>208</v>
       </c>
       <c r="M26">
-        <v>11</v>
+        <v>208</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1482,21 +1347,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>8</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>0.539906103286385</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L27">
-        <v>115</v>
+        <v>26</v>
       </c>
       <c r="M27">
-        <v>115</v>
+        <v>26</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1508,21 +1373,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>98</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K28">
-        <v>0.5333333333333333</v>
+        <v>0.4529411764705882</v>
       </c>
       <c r="L28">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="M28">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1534,21 +1399,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>14</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>0.5277777777777778</v>
+        <v>0.4157303370786517</v>
       </c>
       <c r="L29">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="M29">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1560,21 +1425,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>0.5142857142857142</v>
+        <v>0.4</v>
       </c>
       <c r="L30">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="M30">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1586,21 +1451,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>17</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>0.5</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="L31">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="M31">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1612,21 +1477,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K32">
-        <v>0.4806201550387597</v>
+        <v>0.3561643835616438</v>
       </c>
       <c r="L32">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="M32">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1638,21 +1503,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K33">
-        <v>0.4545454545454545</v>
+        <v>0.3538461538461539</v>
       </c>
       <c r="L33">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="M33">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1664,21 +1529,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K34">
-        <v>0.358695652173913</v>
+        <v>0.34375</v>
       </c>
       <c r="L34">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="M34">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1690,21 +1555,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K35">
-        <v>0.2972972972972973</v>
+        <v>0.3430962343096234</v>
       </c>
       <c r="L35">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="M35">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1716,33 +1581,33 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>26</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="K36">
-        <v>0.2631578947368421</v>
+        <v>0.006119162640901771</v>
       </c>
       <c r="L36">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="M36">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>28</v>
+        <v>3086</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/210/stop-words-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-0.1/avg_0.003_scores.xlsx
@@ -43,9 +43,6 @@
     <t>crude</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
@@ -61,40 +58,52 @@
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>love</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>free</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>free</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>healthy</t>
   </si>
   <si>
     <t>support</t>
@@ -106,18 +115,9 @@
     <t>safety</t>
   </si>
   <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
@@ -127,40 +127,40 @@
     <t>relief</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
-    <t>help</t>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>co</t>
+    <t>store</t>
   </si>
 </sst>
 </file>
@@ -518,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -526,10 +526,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -587,13 +587,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8235294117647058</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -605,19 +605,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K3">
-        <v>0.9696969696969697</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="M3">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -637,13 +637,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6551724137931034</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -655,19 +655,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4">
-        <v>0.9615384615384616</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L4">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M4">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -687,13 +687,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6388888888888888</v>
+        <v>0.5993150684931506</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>175</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>175</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -705,19 +705,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K5">
-        <v>0.9322033898305084</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L5">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="M5">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -729,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -737,13 +737,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5958904109589042</v>
+        <v>0.1821705426356589</v>
       </c>
       <c r="C6">
-        <v>174</v>
+        <v>94</v>
       </c>
       <c r="D6">
-        <v>174</v>
+        <v>94</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -755,19 +755,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>118</v>
+        <v>422</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K6">
-        <v>0.9130434782608695</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L6">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M6">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -787,13 +787,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.1841085271317829</v>
+        <v>0.164021164021164</v>
       </c>
       <c r="C7">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="D7">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -805,69 +805,45 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>421</v>
+        <v>158</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7">
+        <v>0.9322033898305084</v>
+      </c>
+      <c r="L7">
+        <v>55</v>
+      </c>
+      <c r="M7">
+        <v>55</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="J8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K7">
-        <v>0.9090909090909091</v>
-      </c>
-      <c r="L7">
-        <v>20</v>
-      </c>
-      <c r="M7">
-        <v>20</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0.1693121693121693</v>
-      </c>
-      <c r="C8">
-        <v>32</v>
-      </c>
-      <c r="D8">
-        <v>32</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>157</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="K8">
-        <v>0.875</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -879,21 +855,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K9">
-        <v>0.8518518518518519</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L9">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M9">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -905,21 +881,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K10">
-        <v>0.8292682926829268</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L10">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="M10">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -931,21 +907,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K11">
-        <v>0.8055555555555556</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L11">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="M11">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -957,21 +933,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K12">
-        <v>0.7931034482758621</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L12">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="M12">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -983,21 +959,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K13">
-        <v>0.7890625</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L13">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="M13">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1009,21 +985,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K14">
-        <v>0.775</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L14">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="M14">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1035,47 +1011,47 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15">
+        <v>0.775</v>
+      </c>
+      <c r="L15">
+        <v>93</v>
+      </c>
+      <c r="M15">
+        <v>93</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>27</v>
-      </c>
-      <c r="K15">
-        <v>0.7547169811320755</v>
-      </c>
-      <c r="L15">
-        <v>80</v>
-      </c>
-      <c r="M15">
-        <v>80</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K16">
-        <v>0.7535211267605634</v>
+        <v>0.7734375</v>
       </c>
       <c r="L16">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="M16">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1087,21 +1063,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K17">
-        <v>0.7254901960784313</v>
+        <v>0.75</v>
       </c>
       <c r="L17">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="M17">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1113,21 +1089,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K18">
-        <v>0.7037037037037037</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L18">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M18">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1139,21 +1115,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K19">
-        <v>0.6944444444444444</v>
+        <v>0.7358490566037735</v>
       </c>
       <c r="L19">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="M19">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1165,21 +1141,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K20">
-        <v>0.68125</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="L20">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="M20">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1191,21 +1167,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K21">
-        <v>0.6785714285714286</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L21">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="M21">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1217,21 +1193,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K22">
-        <v>0.6190476190476191</v>
+        <v>0.7</v>
       </c>
       <c r="L22">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="M22">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1243,21 +1219,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K23">
-        <v>0.6063829787234043</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L23">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="M23">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1269,21 +1245,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K24">
-        <v>0.58</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="L24">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="M24">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1295,21 +1271,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K25">
-        <v>0.5531914893617021</v>
+        <v>0.58</v>
       </c>
       <c r="L25">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M25">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1326,16 +1302,16 @@
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K26">
-        <v>0.5430809399477807</v>
+        <v>0.5625</v>
       </c>
       <c r="L26">
-        <v>208</v>
+        <v>27</v>
       </c>
       <c r="M26">
-        <v>208</v>
+        <v>27</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1347,15 +1323,15 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>175</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K27">
-        <v>0.5416666666666666</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="L27">
         <v>26</v>
@@ -1373,21 +1349,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K28">
-        <v>0.4529411764705882</v>
+        <v>0.5091383812010444</v>
       </c>
       <c r="L28">
-        <v>154</v>
+        <v>195</v>
       </c>
       <c r="M28">
-        <v>154</v>
+        <v>195</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1399,21 +1375,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K29">
-        <v>0.4157303370786517</v>
+        <v>0.4588235294117647</v>
       </c>
       <c r="L29">
-        <v>37</v>
+        <v>156</v>
       </c>
       <c r="M29">
-        <v>37</v>
+        <v>156</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1425,21 +1401,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>52</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K30">
-        <v>0.4</v>
+        <v>0.4271186440677966</v>
       </c>
       <c r="L30">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="M30">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1451,21 +1427,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K31">
-        <v>0.3717948717948718</v>
+        <v>0.4157303370786517</v>
       </c>
       <c r="L31">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M31">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1477,21 +1453,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K32">
-        <v>0.3561643835616438</v>
+        <v>0.3692307692307693</v>
       </c>
       <c r="L32">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M32">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1503,21 +1479,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K33">
-        <v>0.3538461538461539</v>
+        <v>0.3561643835616438</v>
       </c>
       <c r="L33">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M33">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1529,21 +1505,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K34">
-        <v>0.34375</v>
+        <v>0.3430962343096234</v>
       </c>
       <c r="L34">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="M34">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1555,21 +1531,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>42</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K35">
-        <v>0.3430962343096234</v>
+        <v>0.328125</v>
       </c>
       <c r="L35">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="M35">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1581,33 +1557,59 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>157</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K36">
+        <v>0.2948717948717949</v>
+      </c>
+      <c r="L36">
+        <v>23</v>
+      </c>
+      <c r="M36">
+        <v>23</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K36">
-        <v>0.006119162640901771</v>
-      </c>
-      <c r="L36">
-        <v>19</v>
-      </c>
-      <c r="M36">
-        <v>21</v>
-      </c>
-      <c r="N36">
-        <v>0.9</v>
-      </c>
-      <c r="O36">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="P36" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q36">
-        <v>3086</v>
+      <c r="K37">
+        <v>0.02237136465324385</v>
+      </c>
+      <c r="L37">
+        <v>20</v>
+      </c>
+      <c r="M37">
+        <v>20</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>874</v>
       </c>
     </row>
   </sheetData>
